--- a/images/Tableau.xlsx
+++ b/images/Tableau.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
   <si>
     <t xml:space="preserve">BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t xml:space="preserve">10/09/2021 au 17/12/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIO 2 : AP Semestre 2 : Création d’une application mobile sous XAMARIN permettant la gestions d’enchères.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21/02/2022 au 06/05/2022</t>
   </si>
   <si>
     <t xml:space="preserve">Réalisations en milieu professionnel en cours de première année</t>
@@ -202,7 +208,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* \-??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -285,6 +291,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -574,7 +587,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -651,12 +664,20 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -771,8 +792,8 @@
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -914,14 +935,14 @@
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="18"/>
-      <c r="E8" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="18" t="s">
+      <c r="E8" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="18"/>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="20" t="s">
         <v>26</v>
       </c>
     </row>
@@ -933,13 +954,13 @@
         <v>28</v>
       </c>
       <c r="C9" s="18"/>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="19" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="20" t="s">
         <v>26</v>
       </c>
     </row>
@@ -950,18 +971,20 @@
       <c r="B10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18" t="s">
+      <c r="C10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="18"/>
-      <c r="F10" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="19" t="s">
+      <c r="F10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="20" t="s">
         <v>26</v>
       </c>
     </row>
@@ -972,228 +995,250 @@
       <c r="B11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="19" t="s">
+      <c r="C11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" s="13" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
+      <c r="A12" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" s="13" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="15"/>
-      <c r="B13" s="20"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
+      <c r="H13" s="22"/>
     </row>
     <row r="14" s="13" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
+      <c r="A14" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
     </row>
     <row r="15" s="13" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="19" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
+      <c r="H15" s="22"/>
     </row>
     <row r="16" s="13" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
+      <c r="H16" s="22"/>
     </row>
     <row r="17" s="13" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="19" t="s">
+      <c r="F17" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" s="13" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
+      <c r="A18" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" s="13" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
-      <c r="H19" s="19"/>
+      <c r="H19" s="22"/>
     </row>
     <row r="20" s="13" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" s="13" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C21" s="18"/>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="19" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="19"/>
+      <c r="H21" s="22"/>
     </row>
     <row r="22" s="13" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" s="13" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="15"/>
-      <c r="B23" s="20"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
-      <c r="H23" s="19"/>
+      <c r="H23" s="22"/>
     </row>
     <row r="24" s="13" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="15"/>
-      <c r="B24" s="20"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
-      <c r="H24" s="19"/>
+      <c r="H24" s="22"/>
     </row>
     <row r="25" s="13" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="15"/>
-      <c r="B25" s="20"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
-      <c r="H25" s="19"/>
+      <c r="H25" s="22"/>
     </row>
     <row r="26" s="13" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="25"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="27"/>
     </row>
     <row r="27" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="26"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
     </row>
     <row r="28" s="13" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1"/>
